--- a/program_directory/interpreterAccounting/尚荣医疗：2019年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/尚荣医疗：2019年年度报告.xlsx
@@ -20,20 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="312">
   <si>
     <t>项目</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <charset val="134"/>
-      </rPr>
-      <t>附注六</t>
-    </r>
+    <t>附注</t>
   </si>
   <si>
     <r>
@@ -109,15 +101,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以公允价值计量且其变动计入当期损益的金融资产</t>
-    </r>
+    <t>以公允价值计量且其变动计入当期损益的金融资产</t>
   </si>
   <si>
     <r>
@@ -518,15 +502,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注释深</t>
-    </r>
+    <t>注释12</t>
   </si>
   <si>
     <r>
@@ -1687,6 +1663,17 @@
         <rFont val="MingLiU"/>
         <charset val="134"/>
       </rPr>
+      <t>附注六</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <charset val="134"/>
+      </rPr>
       <t>本期金额</t>
     </r>
   </si>
@@ -2961,15 +2948,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（二）股东投入和减少资本</t>
-    </r>
+    <t>（二）股东投入和减少资本</t>
   </si>
   <si>
     <r>
@@ -4326,11 +4305,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_);\(0.0000\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -4408,6 +4387,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -4416,17 +4411,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4438,11 +4426,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4451,6 +4438,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4464,29 +4459,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4507,32 +4487,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4553,36 +4532,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4595,13 +4544,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4613,7 +4676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4625,61 +4694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4691,43 +4706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4813,17 +4792,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4844,6 +4817,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4854,6 +4851,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4872,174 +4880,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -5775,8 +5754,8 @@
   <sheetPr/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -7089,21 +7068,21 @@
         <v>123</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="93">
         <v>1530819966.88</v>
@@ -7114,10 +7093,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="98" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>127</v>
       </c>
       <c r="C3" s="88">
         <v>1200999693.25</v>
@@ -7128,10 +7107,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="88">
         <v>15491270.87</v>
@@ -7142,10 +7121,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="99" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="88">
         <v>64606038.55</v>
@@ -7156,10 +7135,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="88">
         <v>92183165.92</v>
@@ -7170,10 +7149,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="88">
         <v>47889131.89</v>
@@ -7184,10 +7163,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="88">
         <v>-4714076.65</v>
@@ -7198,7 +7177,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="101" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="88">
@@ -7210,7 +7189,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="88">
@@ -7222,10 +7201,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="98" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="88">
         <v>16954463.64</v>
@@ -7236,10 +7215,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="99" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="88">
         <v>-955965.88</v>
@@ -7250,7 +7229,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="93">
@@ -7262,7 +7241,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="104" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="50" t="s">
@@ -7274,7 +7253,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="105" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="50" t="s">
@@ -7286,10 +7265,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="88">
         <v>1927611.3</v>
@@ -7300,10 +7279,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="99" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" s="106">
         <v>-59364689.7</v>
@@ -7314,10 +7293,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="99" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" s="88">
         <v>-695218.92</v>
@@ -7328,7 +7307,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="105" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="50" t="s">
@@ -7340,7 +7319,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="88">
@@ -7352,10 +7331,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" s="88">
         <v>838636.84</v>
@@ -7366,10 +7345,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C22" s="88">
         <v>2245410.04</v>
@@ -7380,7 +7359,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="93">
@@ -7392,10 +7371,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" s="88">
         <v>-5600056.96</v>
@@ -7406,7 +7385,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="88">
@@ -7418,7 +7397,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="92"/>
@@ -7426,7 +7405,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="92"/>
@@ -7434,7 +7413,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="88">
@@ -7446,7 +7425,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="50" t="s">
@@ -7458,7 +7437,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="92"/>
@@ -7466,7 +7445,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="88">
@@ -7478,7 +7457,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="88">
@@ -7490,10 +7469,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B33" s="87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C33" s="93">
         <v>6935869.22</v>
@@ -7504,10 +7483,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="108" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B34" s="98" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C34" s="88">
         <v>1048314.3</v>
@@ -7518,7 +7497,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="109" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="110" t="s">
@@ -7530,7 +7509,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="111" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="93">
@@ -7542,7 +7521,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="112" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="88">
@@ -7554,10 +7533,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="108" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C38" s="88">
         <v>5887554.92</v>
@@ -7568,7 +7547,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="113">
@@ -7580,7 +7559,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="113">
@@ -7592,7 +7571,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="113">
@@ -7604,7 +7583,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B42" s="44"/>
       <c r="C42" s="92"/>
@@ -7612,7 +7591,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B43" s="44"/>
       <c r="C43" s="114">
@@ -7624,7 +7603,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B44" s="44"/>
       <c r="C44" s="114">
@@ -7645,7 +7624,7 @@
   <sheetPr/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C9" sqref="A1:D41"/>
     </sheetView>
   </sheetViews>
@@ -7660,21 +7639,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="83" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -7682,7 +7661,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="88">
@@ -7694,7 +7673,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="88">
@@ -7706,10 +7685,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C5" s="88">
         <v>34145124.87</v>
@@ -7720,7 +7699,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="88">
@@ -7732,7 +7711,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="88">
@@ -7744,7 +7723,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="88">
@@ -7756,7 +7735,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="88">
@@ -7768,10 +7747,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" s="88">
         <v>231940933.44</v>
@@ -7782,7 +7761,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="88">
@@ -7794,7 +7773,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="88">
@@ -7806,7 +7785,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -7814,7 +7793,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="88">
@@ -7826,7 +7805,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="89">
@@ -7838,7 +7817,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="89">
@@ -7850,7 +7829,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="91" t="s">
@@ -7862,7 +7841,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="92"/>
@@ -7870,7 +7849,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="88">
@@ -7882,7 +7861,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="88">
@@ -7894,7 +7873,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="88">
@@ -7906,7 +7885,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="91" t="s">
@@ -7918,7 +7897,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="92"/>
@@ -7926,7 +7905,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="88">
@@ -7938,7 +7917,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="93">
@@ -7950,7 +7929,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -7958,7 +7937,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="91" t="s">
@@ -7970,7 +7949,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="91" t="s">
@@ -7982,7 +7961,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="88">
@@ -7994,10 +7973,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C30" s="88">
         <v>177325833.31</v>
@@ -8008,7 +7987,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="88">
@@ -8020,7 +7999,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="88">
@@ -8032,7 +8011,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="88">
@@ -8044,7 +8023,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="91" t="s">
@@ -8056,10 +8035,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C35" s="88">
         <v>220827693.06</v>
@@ -8070,7 +8049,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="88">
@@ -8082,7 +8061,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="93">
@@ -8094,7 +8073,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="93">
@@ -8106,10 +8085,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="87" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C39" s="93">
         <v>263593870.29</v>
@@ -8120,10 +8099,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="46" t="s">
         <v>229</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>228</v>
       </c>
       <c r="C40" s="88">
         <v>283214597.59</v>
@@ -8134,10 +8113,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C41" s="88">
         <v>546808467.88</v>
@@ -8163,7 +8142,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K30"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -8227,7 +8206,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="49">
         <v>705917914</v>
@@ -8239,13 +8218,13 @@
         <v>903224439.65</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F2" s="70">
         <v>1302943.74</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H2" s="63">
         <v>40945902.86</v>
@@ -8262,25 +8241,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>232</v>
-      </c>
       <c r="F3" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>9</v>
@@ -8297,7 +8276,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>9</v>
@@ -8309,13 +8288,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F4" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H4" s="50" t="s">
         <v>9</v>
@@ -8332,7 +8311,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>9</v>
@@ -8344,13 +8323,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H5" s="50" t="s">
         <v>9</v>
@@ -8367,7 +8346,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>9</v>
@@ -8379,13 +8358,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F6" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H6" s="50" t="s">
         <v>9</v>
@@ -8402,7 +8381,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B7" s="56">
         <v>705917914</v>
@@ -8414,13 +8393,13 @@
         <v>903224439.65</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F7" s="72">
         <v>1302943.74</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H7" s="66">
         <v>40945902.86</v>
@@ -8437,7 +8416,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B8" s="59">
         <v>49848</v>
@@ -8449,13 +8428,13 @@
         <v>188636.2</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8" s="74">
         <v>1048314.3</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H8" s="60">
         <v>2279633.43</v>
@@ -8472,7 +8451,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>9</v>
@@ -8484,13 +8463,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F9" s="70">
         <v>1048314.3</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H9" s="50" t="s">
         <v>9</v>
@@ -8507,7 +8486,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B10" s="62">
         <v>49848</v>
@@ -8519,13 +8498,13 @@
         <v>188636.2</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F10" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>9</v>
@@ -8542,7 +8521,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B11" s="62">
         <v>49848</v>
@@ -8554,13 +8533,13 @@
         <v>188636.2</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H11" s="50" t="s">
         <v>9</v>
@@ -8577,7 +8556,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>9</v>
@@ -8589,13 +8568,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H12" s="50" t="s">
         <v>9</v>
@@ -8612,7 +8591,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>9</v>
@@ -8624,13 +8603,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F13" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>9</v>
@@ -8647,7 +8626,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>9</v>
@@ -8659,13 +8638,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F14" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H14" s="50" t="s">
         <v>9</v>
@@ -8682,7 +8661,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B15" s="53" t="s">
         <v>9</v>
@@ -8694,13 +8673,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F15" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H15" s="63">
         <v>2279633.43</v>
@@ -8717,7 +8696,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B16" s="53" t="s">
         <v>9</v>
@@ -8729,13 +8708,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F16" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H16" s="63">
         <v>2279633.43</v>
@@ -8752,7 +8731,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="65" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B17" s="53" t="s">
         <v>9</v>
@@ -8764,13 +8743,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F17" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H17" s="50" t="s">
         <v>9</v>
@@ -8787,7 +8766,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B18" s="53" t="s">
         <v>9</v>
@@ -8799,13 +8778,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F18" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H18" s="50" t="s">
         <v>9</v>
@@ -8822,7 +8801,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>9</v>
@@ -8834,13 +8813,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F19" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H19" s="50" t="s">
         <v>9</v>
@@ -8857,7 +8836,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B20" s="53" t="s">
         <v>9</v>
@@ -8869,13 +8848,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H20" s="50" t="s">
         <v>9</v>
@@ -8892,7 +8871,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="65" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>9</v>
@@ -8904,13 +8883,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F21" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H21" s="50" t="s">
         <v>9</v>
@@ -8927,7 +8906,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="65" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B22" s="53" t="s">
         <v>9</v>
@@ -8939,13 +8918,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F22" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H22" s="50" t="s">
         <v>9</v>
@@ -8962,7 +8941,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B23" s="53" t="s">
         <v>9</v>
@@ -8974,13 +8953,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F23" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H23" s="50" t="s">
         <v>9</v>
@@ -8997,7 +8976,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" s="53" t="s">
         <v>9</v>
@@ -9009,13 +8988,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H24" s="50" t="s">
         <v>9</v>
@@ -9032,7 +9011,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" s="53" t="s">
         <v>9</v>
@@ -9044,13 +9023,13 @@
         <v>9</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F25" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H25" s="50" t="s">
         <v>9</v>
@@ -9067,7 +9046,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B26" s="53" t="s">
         <v>9</v>
@@ -9079,13 +9058,13 @@
         <v>9</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F26" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>9</v>
@@ -9102,7 +9081,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" s="53" t="s">
         <v>9</v>
@@ -9114,13 +9093,13 @@
         <v>9</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F27" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H27" s="50" t="s">
         <v>9</v>
@@ -9137,7 +9116,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" s="53" t="s">
         <v>9</v>
@@ -9149,13 +9128,13 @@
         <v>9</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F28" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H28" s="50" t="s">
         <v>9</v>
@@ -9172,7 +9151,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B29" s="53" t="s">
         <v>9</v>
@@ -9184,13 +9163,13 @@
         <v>9</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F29" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H29" s="50" t="s">
         <v>9</v>
@@ -9207,7 +9186,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" s="56">
         <v>705967762</v>
@@ -9219,13 +9198,13 @@
         <v>903413075.85</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F30" s="72">
         <v>2351258.04</v>
       </c>
       <c r="G30" s="77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H30" s="66">
         <v>43225536.29</v>
@@ -9273,21 +9252,21 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="30"/>
@@ -9295,7 +9274,7 @@
     </row>
     <row r="3" ht="17.25" spans="1:4">
       <c r="A3" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B3" s="33">
         <v>261239269.32</v>
@@ -9309,7 +9288,7 @@
     </row>
     <row r="4" ht="17.25" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B4" s="36">
         <v>4604100</v>
@@ -9323,7 +9302,7 @@
     </row>
     <row r="5" ht="17.25" spans="1:4">
       <c r="A5" s="39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B5" s="36">
         <v>4604100</v>
@@ -9337,7 +9316,7 @@
     </row>
     <row r="6" ht="17.25" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="30"/>
@@ -9345,7 +9324,7 @@
     </row>
     <row r="7" ht="17.25" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B7" s="33">
         <v>265843369.32</v>
@@ -9359,7 +9338,7 @@
     </row>
     <row r="8" ht="17.25" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="30"/>
@@ -9367,7 +9346,7 @@
     </row>
     <row r="9" ht="17.25" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B9" s="41">
         <v>28315701.16</v>
@@ -9381,7 +9360,7 @@
     </row>
     <row r="10" ht="17.25" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B10" s="36">
         <v>5578651.48</v>
@@ -9395,7 +9374,7 @@
     </row>
     <row r="11" ht="17.25" spans="1:4">
       <c r="A11" s="39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B11" s="36">
         <v>5578651.48</v>
@@ -9409,7 +9388,7 @@
     </row>
     <row r="12" ht="17.25" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="30"/>
@@ -9417,7 +9396,7 @@
     </row>
     <row r="13" ht="17.25" spans="1:4">
       <c r="A13" s="32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B13" s="41">
         <v>33894352.64</v>
@@ -9431,7 +9410,7 @@
     </row>
     <row r="14" ht="17.25" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="30"/>
@@ -9439,7 +9418,7 @@
     </row>
     <row r="15" ht="17.25" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="30"/>
@@ -9447,7 +9426,7 @@
     </row>
     <row r="16" ht="17.25" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B16" s="33">
         <v>231949016.68</v>
@@ -9461,7 +9440,7 @@
     </row>
     <row r="17" ht="17.25" spans="1:4">
       <c r="A17" s="32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B17" s="33">
         <v>232923568.16</v>
@@ -9484,7 +9463,7 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -9500,25 +9479,25 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
     </row>
     <row r="3" ht="17.25" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B3" s="9">
         <v>76424227.25</v>
@@ -9529,18 +9508,18 @@
     </row>
     <row r="4" ht="17.25" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B4" s="9">
         <v>59364689.7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B5" s="12">
         <v>695218.92</v>
@@ -9551,7 +9530,7 @@
     </row>
     <row r="6" ht="17.25" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B6" s="9">
         <v>33434658.34</v>
@@ -9562,7 +9541,7 @@
     </row>
     <row r="7" ht="17.25" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B7" s="12">
         <v>6152609.74</v>
@@ -9573,7 +9552,7 @@
     </row>
     <row r="8" ht="17.25" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B8" s="12">
         <v>3000015.94</v>
@@ -9584,18 +9563,18 @@
     </row>
     <row r="9" ht="24" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B10" s="12">
         <v>823531.65</v>
@@ -9606,18 +9585,18 @@
     </row>
     <row r="11" ht="17.25" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B11" s="17">
         <v>-1927611.3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B12" s="9">
         <v>12080200.26</v>
@@ -9628,7 +9607,7 @@
     </row>
     <row r="13" ht="17.25" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B13" s="12">
         <v>-2443819.03</v>
@@ -9639,7 +9618,7 @@
     </row>
     <row r="14" ht="17.25" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B14" s="12">
         <v>-23377540.05</v>
@@ -9650,18 +9629,18 @@
     </row>
     <row r="15" ht="17.25" spans="1:3">
       <c r="A15" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B16" s="17">
         <v>-1683425.51</v>
@@ -9672,7 +9651,7 @@
     </row>
     <row r="17" ht="17.25" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B17" s="17">
         <v>-49137412.37</v>
@@ -9683,7 +9662,7 @@
     </row>
     <row r="18" ht="17.25" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B18" s="17">
         <v>183365596.7</v>
@@ -9694,7 +9673,7 @@
     </row>
     <row r="19" ht="17.25" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B19" s="9">
         <v>-167029668.96</v>
@@ -9705,7 +9684,7 @@
     </row>
     <row r="20" ht="17.25" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B20" s="9">
         <v>10137486.72</v>
@@ -9716,7 +9695,7 @@
     </row>
     <row r="21" ht="17.25" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B21" s="20">
         <v>139878758</v>
@@ -9727,57 +9706,57 @@
     </row>
     <row r="22" ht="17.25" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
     <row r="23" ht="17.25" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" ht="17.25" spans="1:3">
       <c r="A27" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C27" s="24">
         <v>283214597.59</v>
@@ -9785,10 +9764,10 @@
     </row>
     <row r="28" ht="17.25" spans="1:3">
       <c r="A28" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C28" s="26">
         <v>580783688.45</v>
@@ -9796,27 +9775,27 @@
     </row>
     <row r="29" ht="17.25" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C29" s="26"/>
     </row>
     <row r="30" ht="17.25" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B31" s="17">
         <v>263593870.29</v>

--- a/program_directory/interpreterAccounting/尚荣医疗：2019年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/尚荣医疗：2019年年度报告.xlsx
@@ -20,12 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="311">
   <si>
     <t>项目</t>
   </si>
   <si>
-    <t>附注</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附注六</t>
+    </r>
   </si>
   <si>
     <r>
@@ -101,7 +109,15 @@
     </r>
   </si>
   <si>
-    <t>以公允价值计量且其变动计入当期损益的金融资产</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以公允价值计量且其变动计入当期损益的金融资产</t>
+    </r>
   </si>
   <si>
     <r>
@@ -502,7 +518,15 @@
     </r>
   </si>
   <si>
-    <t>注释12</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注释深</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1663,17 +1687,6 @@
         <rFont val="MingLiU"/>
         <charset val="134"/>
       </rPr>
-      <t>附注六</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <charset val="134"/>
-      </rPr>
       <t>本期金额</t>
     </r>
   </si>
@@ -2948,7 +2961,15 @@
     </r>
   </si>
   <si>
-    <t>（二）股东投入和减少资本</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（二）股东投入和减少资本</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4305,11 +4326,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_);\(0.0000\)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -4387,22 +4408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -4411,10 +4416,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4426,16 +4438,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4449,24 +4485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4487,31 +4507,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4532,6 +4553,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4544,7 +4595,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4556,7 +4643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4568,13 +4661,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4586,127 +4727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4792,11 +4813,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4817,30 +4844,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4851,17 +4854,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4880,145 +4872,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -5754,8 +5775,8 @@
   <sheetPr/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -7068,21 +7089,21 @@
         <v>123</v>
       </c>
       <c r="B1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="D1" s="96" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="96" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>128</v>
       </c>
       <c r="C2" s="93">
         <v>1530819966.88</v>
@@ -7093,10 +7114,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="88">
         <v>1200999693.25</v>
@@ -7107,10 +7128,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>131</v>
       </c>
       <c r="C4" s="88">
         <v>15491270.87</v>
@@ -7121,10 +7142,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="98" t="s">
         <v>132</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>133</v>
       </c>
       <c r="C5" s="88">
         <v>64606038.55</v>
@@ -7135,10 +7156,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="98" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>135</v>
       </c>
       <c r="C6" s="88">
         <v>92183165.92</v>
@@ -7149,10 +7170,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="98" t="s">
         <v>136</v>
-      </c>
-      <c r="B7" s="98" t="s">
-        <v>137</v>
       </c>
       <c r="C7" s="88">
         <v>47889131.89</v>
@@ -7163,10 +7184,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="98" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>139</v>
       </c>
       <c r="C8" s="88">
         <v>-4714076.65</v>
@@ -7177,7 +7198,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="88">
@@ -7189,7 +7210,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="88">
@@ -7201,10 +7222,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="98" t="s">
         <v>142</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>143</v>
       </c>
       <c r="C11" s="88">
         <v>16954463.64</v>
@@ -7215,10 +7236,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="98" t="s">
         <v>144</v>
-      </c>
-      <c r="B12" s="98" t="s">
-        <v>145</v>
       </c>
       <c r="C12" s="88">
         <v>-955965.88</v>
@@ -7229,7 +7250,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="93">
@@ -7241,7 +7262,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="50" t="s">
@@ -7253,7 +7274,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="50" t="s">
@@ -7265,10 +7286,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="98" t="s">
         <v>149</v>
-      </c>
-      <c r="B16" s="98" t="s">
-        <v>150</v>
       </c>
       <c r="C16" s="88">
         <v>1927611.3</v>
@@ -7279,10 +7300,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="98" t="s">
         <v>151</v>
-      </c>
-      <c r="B17" s="98" t="s">
-        <v>152</v>
       </c>
       <c r="C17" s="106">
         <v>-59364689.7</v>
@@ -7293,10 +7314,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="98" t="s">
         <v>153</v>
-      </c>
-      <c r="B18" s="98" t="s">
-        <v>154</v>
       </c>
       <c r="C18" s="88">
         <v>-695218.92</v>
@@ -7307,7 +7328,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="50" t="s">
@@ -7319,7 +7340,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="88">
@@ -7331,10 +7352,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="98" t="s">
         <v>157</v>
-      </c>
-      <c r="B21" s="98" t="s">
-        <v>158</v>
       </c>
       <c r="C21" s="88">
         <v>838636.84</v>
@@ -7345,10 +7366,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="98" t="s">
         <v>159</v>
-      </c>
-      <c r="B22" s="98" t="s">
-        <v>160</v>
       </c>
       <c r="C22" s="88">
         <v>2245410.04</v>
@@ -7359,7 +7380,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="93">
@@ -7371,10 +7392,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="98" t="s">
         <v>162</v>
-      </c>
-      <c r="B24" s="98" t="s">
-        <v>163</v>
       </c>
       <c r="C24" s="88">
         <v>-5600056.96</v>
@@ -7385,7 +7406,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="88">
@@ -7397,7 +7418,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="92"/>
@@ -7405,7 +7426,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="92"/>
@@ -7413,7 +7434,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="88">
@@ -7425,7 +7446,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="50" t="s">
@@ -7437,7 +7458,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="92"/>
@@ -7445,7 +7466,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="88">
@@ -7457,7 +7478,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="88">
@@ -7469,10 +7490,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="87" t="s">
         <v>172</v>
-      </c>
-      <c r="B33" s="87" t="s">
-        <v>173</v>
       </c>
       <c r="C33" s="93">
         <v>6935869.22</v>
@@ -7483,10 +7504,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="98" t="s">
         <v>174</v>
-      </c>
-      <c r="B34" s="98" t="s">
-        <v>175</v>
       </c>
       <c r="C34" s="88">
         <v>1048314.3</v>
@@ -7497,7 +7518,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="110" t="s">
@@ -7509,7 +7530,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="93">
@@ -7521,7 +7542,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="112" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="88">
@@ -7533,10 +7554,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="88">
         <v>5887554.92</v>
@@ -7547,7 +7568,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="113">
@@ -7559,7 +7580,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="113">
@@ -7571,7 +7592,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="113">
@@ -7583,7 +7604,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" s="44"/>
       <c r="C42" s="92"/>
@@ -7591,7 +7612,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" s="44"/>
       <c r="C43" s="114">
@@ -7603,7 +7624,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44" s="44"/>
       <c r="C44" s="114">
@@ -7624,7 +7645,7 @@
   <sheetPr/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A35" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C9" sqref="A1:D41"/>
     </sheetView>
   </sheetViews>
@@ -7639,21 +7660,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="D1" s="86" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -7661,7 +7682,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="88">
@@ -7673,7 +7694,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="88">
@@ -7685,10 +7706,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>193</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>194</v>
       </c>
       <c r="C5" s="88">
         <v>34145124.87</v>
@@ -7699,7 +7720,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="88">
@@ -7711,7 +7732,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="88">
@@ -7723,7 +7744,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="88">
@@ -7735,7 +7756,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="88">
@@ -7747,10 +7768,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="88">
         <v>231940933.44</v>
@@ -7761,7 +7782,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="88">
@@ -7773,7 +7794,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="88">
@@ -7785,7 +7806,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -7793,7 +7814,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="88">
@@ -7805,7 +7826,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="89">
@@ -7817,7 +7838,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="89">
@@ -7829,7 +7850,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="91" t="s">
@@ -7841,7 +7862,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="92"/>
@@ -7849,7 +7870,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="88">
@@ -7861,7 +7882,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="88">
@@ -7873,7 +7894,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="88">
@@ -7885,7 +7906,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="91" t="s">
@@ -7897,7 +7918,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="92"/>
@@ -7905,7 +7926,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="88">
@@ -7917,7 +7938,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="93">
@@ -7929,7 +7950,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -7937,7 +7958,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="91" t="s">
@@ -7949,7 +7970,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="91" t="s">
@@ -7961,7 +7982,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="88">
@@ -7973,10 +7994,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C30" s="88">
         <v>177325833.31</v>
@@ -7987,7 +8008,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="88">
@@ -7999,7 +8020,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="88">
@@ -8011,7 +8032,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="88">
@@ -8023,7 +8044,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="91" t="s">
@@ -8035,10 +8056,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" s="88">
         <v>220827693.06</v>
@@ -8049,7 +8070,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="88">
@@ -8061,7 +8082,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="93">
@@ -8073,7 +8094,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="93">
@@ -8085,10 +8106,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="87" t="s">
         <v>228</v>
-      </c>
-      <c r="B39" s="87" t="s">
-        <v>229</v>
       </c>
       <c r="C39" s="93">
         <v>263593870.29</v>
@@ -8099,10 +8120,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C40" s="88">
         <v>283214597.59</v>
@@ -8113,10 +8134,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C41" s="88">
         <v>546808467.88</v>
@@ -8142,7 +8163,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A1" sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -8206,7 +8227,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="49">
         <v>705917914</v>
@@ -8218,13 +8239,13 @@
         <v>903224439.65</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" s="70">
         <v>1302943.74</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H2" s="63">
         <v>40945902.86</v>
@@ -8241,7 +8262,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>9</v>
@@ -8253,13 +8274,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>9</v>
@@ -8276,7 +8297,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>9</v>
@@ -8288,13 +8309,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H4" s="50" t="s">
         <v>9</v>
@@ -8311,7 +8332,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>9</v>
@@ -8323,13 +8344,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H5" s="50" t="s">
         <v>9</v>
@@ -8346,7 +8367,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>9</v>
@@ -8358,13 +8379,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H6" s="50" t="s">
         <v>9</v>
@@ -8381,7 +8402,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" s="56">
         <v>705917914</v>
@@ -8393,13 +8414,13 @@
         <v>903224439.65</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F7" s="72">
         <v>1302943.74</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H7" s="66">
         <v>40945902.86</v>
@@ -8416,7 +8437,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="59">
         <v>49848</v>
@@ -8428,13 +8449,13 @@
         <v>188636.2</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F8" s="74">
         <v>1048314.3</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H8" s="60">
         <v>2279633.43</v>
@@ -8451,7 +8472,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>9</v>
@@ -8463,13 +8484,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F9" s="70">
         <v>1048314.3</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H9" s="50" t="s">
         <v>9</v>
@@ -8486,7 +8507,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" s="62">
         <v>49848</v>
@@ -8498,13 +8519,13 @@
         <v>188636.2</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>9</v>
@@ -8521,7 +8542,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="62">
         <v>49848</v>
@@ -8533,13 +8554,13 @@
         <v>188636.2</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H11" s="50" t="s">
         <v>9</v>
@@ -8556,7 +8577,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>9</v>
@@ -8568,13 +8589,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H12" s="50" t="s">
         <v>9</v>
@@ -8591,7 +8612,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>9</v>
@@ -8603,13 +8624,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F13" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>9</v>
@@ -8626,7 +8647,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>9</v>
@@ -8638,13 +8659,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H14" s="50" t="s">
         <v>9</v>
@@ -8661,7 +8682,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B15" s="53" t="s">
         <v>9</v>
@@ -8673,13 +8694,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F15" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H15" s="63">
         <v>2279633.43</v>
@@ -8696,7 +8717,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B16" s="53" t="s">
         <v>9</v>
@@ -8708,13 +8729,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F16" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H16" s="63">
         <v>2279633.43</v>
@@ -8731,7 +8752,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B17" s="53" t="s">
         <v>9</v>
@@ -8743,13 +8764,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H17" s="50" t="s">
         <v>9</v>
@@ -8766,7 +8787,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="53" t="s">
         <v>9</v>
@@ -8778,13 +8799,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H18" s="50" t="s">
         <v>9</v>
@@ -8801,7 +8822,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>9</v>
@@ -8813,13 +8834,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F19" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H19" s="50" t="s">
         <v>9</v>
@@ -8836,7 +8857,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B20" s="53" t="s">
         <v>9</v>
@@ -8848,13 +8869,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H20" s="50" t="s">
         <v>9</v>
@@ -8871,7 +8892,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>9</v>
@@ -8883,13 +8904,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F21" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H21" s="50" t="s">
         <v>9</v>
@@ -8906,7 +8927,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B22" s="53" t="s">
         <v>9</v>
@@ -8918,13 +8939,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F22" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H22" s="50" t="s">
         <v>9</v>
@@ -8941,7 +8962,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23" s="53" t="s">
         <v>9</v>
@@ -8953,13 +8974,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F23" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H23" s="50" t="s">
         <v>9</v>
@@ -8976,7 +8997,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24" s="53" t="s">
         <v>9</v>
@@ -8988,13 +9009,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H24" s="50" t="s">
         <v>9</v>
@@ -9011,7 +9032,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" s="53" t="s">
         <v>9</v>
@@ -9023,13 +9044,13 @@
         <v>9</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F25" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H25" s="50" t="s">
         <v>9</v>
@@ -9046,7 +9067,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" s="53" t="s">
         <v>9</v>
@@ -9058,13 +9079,13 @@
         <v>9</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F26" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>9</v>
@@ -9081,7 +9102,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" s="53" t="s">
         <v>9</v>
@@ -9093,13 +9114,13 @@
         <v>9</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F27" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H27" s="50" t="s">
         <v>9</v>
@@ -9116,7 +9137,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" s="53" t="s">
         <v>9</v>
@@ -9128,13 +9149,13 @@
         <v>9</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F28" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H28" s="50" t="s">
         <v>9</v>
@@ -9151,7 +9172,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="53" t="s">
         <v>9</v>
@@ -9163,13 +9184,13 @@
         <v>9</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F29" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H29" s="50" t="s">
         <v>9</v>
@@ -9186,7 +9207,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="56">
         <v>705967762</v>
@@ -9198,13 +9219,13 @@
         <v>903413075.85</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F30" s="72">
         <v>2351258.04</v>
       </c>
       <c r="G30" s="77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H30" s="66">
         <v>43225536.29</v>
@@ -9252,21 +9273,21 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="29" t="s">
         <v>264</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="30"/>
@@ -9274,7 +9295,7 @@
     </row>
     <row r="3" ht="17.25" spans="1:4">
       <c r="A3" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="33">
         <v>261239269.32</v>
@@ -9288,7 +9309,7 @@
     </row>
     <row r="4" ht="17.25" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4" s="36">
         <v>4604100</v>
@@ -9302,7 +9323,7 @@
     </row>
     <row r="5" ht="17.25" spans="1:4">
       <c r="A5" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="36">
         <v>4604100</v>
@@ -9316,7 +9337,7 @@
     </row>
     <row r="6" ht="17.25" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="30"/>
@@ -9324,7 +9345,7 @@
     </row>
     <row r="7" ht="17.25" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7" s="33">
         <v>265843369.32</v>
@@ -9338,7 +9359,7 @@
     </row>
     <row r="8" ht="17.25" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="30"/>
@@ -9346,7 +9367,7 @@
     </row>
     <row r="9" ht="17.25" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" s="41">
         <v>28315701.16</v>
@@ -9360,7 +9381,7 @@
     </row>
     <row r="10" ht="17.25" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="36">
         <v>5578651.48</v>
@@ -9374,7 +9395,7 @@
     </row>
     <row r="11" ht="17.25" spans="1:4">
       <c r="A11" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B11" s="36">
         <v>5578651.48</v>
@@ -9388,7 +9409,7 @@
     </row>
     <row r="12" ht="17.25" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="30"/>
@@ -9396,7 +9417,7 @@
     </row>
     <row r="13" ht="17.25" spans="1:4">
       <c r="A13" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" s="41">
         <v>33894352.64</v>
@@ -9410,7 +9431,7 @@
     </row>
     <row r="14" ht="17.25" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="30"/>
@@ -9418,7 +9439,7 @@
     </row>
     <row r="15" ht="17.25" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="30"/>
@@ -9426,7 +9447,7 @@
     </row>
     <row r="16" ht="17.25" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" s="33">
         <v>231949016.68</v>
@@ -9440,7 +9461,7 @@
     </row>
     <row r="17" ht="17.25" spans="1:4">
       <c r="A17" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17" s="33">
         <v>232923568.16</v>
@@ -9463,7 +9484,7 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A17" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -9479,25 +9500,25 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
     </row>
     <row r="3" ht="17.25" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" s="9">
         <v>76424227.25</v>
@@ -9508,18 +9529,18 @@
     </row>
     <row r="4" ht="17.25" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" s="9">
         <v>59364689.7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B5" s="12">
         <v>695218.92</v>
@@ -9530,7 +9551,7 @@
     </row>
     <row r="6" ht="17.25" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="9">
         <v>33434658.34</v>
@@ -9541,7 +9562,7 @@
     </row>
     <row r="7" ht="17.25" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B7" s="12">
         <v>6152609.74</v>
@@ -9552,7 +9573,7 @@
     </row>
     <row r="8" ht="17.25" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B8" s="12">
         <v>3000015.94</v>
@@ -9563,18 +9584,18 @@
     </row>
     <row r="9" ht="24" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" s="12">
         <v>823531.65</v>
@@ -9585,18 +9606,18 @@
     </row>
     <row r="11" ht="17.25" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" s="17">
         <v>-1927611.3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" s="9">
         <v>12080200.26</v>
@@ -9607,7 +9628,7 @@
     </row>
     <row r="13" ht="17.25" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B13" s="12">
         <v>-2443819.03</v>
@@ -9618,7 +9639,7 @@
     </row>
     <row r="14" ht="17.25" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B14" s="12">
         <v>-23377540.05</v>
@@ -9629,18 +9650,18 @@
     </row>
     <row r="15" ht="17.25" spans="1:3">
       <c r="A15" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>278</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="17">
         <v>-1683425.51</v>
@@ -9651,7 +9672,7 @@
     </row>
     <row r="17" ht="17.25" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" s="17">
         <v>-49137412.37</v>
@@ -9662,7 +9683,7 @@
     </row>
     <row r="18" ht="17.25" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B18" s="17">
         <v>183365596.7</v>
@@ -9673,7 +9694,7 @@
     </row>
     <row r="19" ht="17.25" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B19" s="9">
         <v>-167029668.96</v>
@@ -9684,7 +9705,7 @@
     </row>
     <row r="20" ht="17.25" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B20" s="9">
         <v>10137486.72</v>
@@ -9695,7 +9716,7 @@
     </row>
     <row r="21" ht="17.25" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B21" s="20">
         <v>139878758</v>
@@ -9706,57 +9727,57 @@
     </row>
     <row r="22" ht="17.25" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
     <row r="23" ht="17.25" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" ht="17.25" spans="1:3">
       <c r="A27" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>305</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>306</v>
       </c>
       <c r="C27" s="24">
         <v>283214597.59</v>
@@ -9764,10 +9785,10 @@
     </row>
     <row r="28" ht="17.25" spans="1:3">
       <c r="A28" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>308</v>
       </c>
       <c r="C28" s="26">
         <v>580783688.45</v>
@@ -9775,27 +9796,27 @@
     </row>
     <row r="29" ht="17.25" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" s="26"/>
     </row>
     <row r="30" ht="17.25" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31" s="17">
         <v>263593870.29</v>
